--- a/inst/results/BMF_computation_PFAS_ng_gdw/2.contam_PFAS_ng_gdw_halfLOQ.xlsx
+++ b/inst/results/BMF_computation_PFAS_ng_gdw/2.contam_PFAS_ng_gdw_halfLOQ.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,13 +406,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>4.455135543940065</v>
+        <v>4.083778437291977</v>
       </c>
       <c r="E2">
-        <v>5.971979102644221</v>
+        <v>5.489575741116197</v>
       </c>
       <c r="F2">
-        <v>9.750030520589968</v>
+        <v>9.162230259008391</v>
       </c>
     </row>
     <row r="3">
@@ -428,17 +428,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.195</v>
+        <v>0.2007237820234695</v>
       </c>
       <c r="E3">
-        <v>0.195</v>
+        <v>0.2476953167249923</v>
       </c>
       <c r="F3">
-        <v>0.195</v>
+        <v>0.3538248654779306</v>
       </c>
     </row>
     <row r="4">
@@ -454,17 +454,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.2007237820234695</v>
+        <v>0.28</v>
       </c>
       <c r="E4">
-        <v>0.2476953167249923</v>
+        <v>0.4250036014405762</v>
       </c>
       <c r="F4">
-        <v>0.3538248654779306</v>
+        <v>0.7129941150550684</v>
       </c>
     </row>
     <row r="5">
@@ -480,17 +480,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.28</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E5">
-        <v>0.4250036014405762</v>
+        <v>0.2186770057407714</v>
       </c>
       <c r="F5">
-        <v>0.7129941150550684</v>
+        <v>0.3555051158846789</v>
       </c>
     </row>
     <row r="6">
@@ -506,17 +506,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.08500000000000001</v>
+        <v>0.458575454500447</v>
       </c>
       <c r="E6">
-        <v>0.2186770057407714</v>
+        <v>0.6093373070873196</v>
       </c>
       <c r="F6">
-        <v>0.3555051158846789</v>
+        <v>1.145717380561409</v>
       </c>
     </row>
     <row r="7">
@@ -532,17 +532,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.458575454500447</v>
+        <v>0.015</v>
       </c>
       <c r="E7">
-        <v>0.6093373070873196</v>
+        <v>0.1100337672364625</v>
       </c>
       <c r="F7">
-        <v>1.145717380561409</v>
+        <v>0.2223012375985455</v>
       </c>
     </row>
     <row r="8">
@@ -558,17 +558,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PFTrDA</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.015</v>
+        <v>0.025</v>
       </c>
       <c r="E8">
-        <v>0.1100337672364625</v>
+        <v>0.4331741496041617</v>
       </c>
       <c r="F8">
-        <v>0.2223012375985455</v>
+        <v>1.125978470426443</v>
       </c>
     </row>
     <row r="9">
@@ -584,17 +584,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PFTeDA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.025</v>
+        <v>0.289743164552889</v>
       </c>
       <c r="E9">
-        <v>0.4331741496041617</v>
+        <v>0.4615056168106285</v>
       </c>
       <c r="F9">
-        <v>1.125978470426443</v>
+        <v>0.8735025293873263</v>
       </c>
     </row>
     <row r="10">
@@ -610,17 +610,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FOSA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.289743164552889</v>
+        <v>0.05</v>
       </c>
       <c r="E10">
-        <v>0.4615056168106285</v>
+        <v>0.05</v>
       </c>
       <c r="F10">
-        <v>0.8735025293873263</v>
+        <v>0.1713823152358172</v>
       </c>
     </row>
     <row r="11">
@@ -636,17 +636,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EtFOSAA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.05</v>
+        <v>1.531549438019291</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>2.113684371759843</v>
       </c>
       <c r="F11">
-        <v>0.1713823152358172</v>
+        <v>3.216751099960185</v>
       </c>
     </row>
     <row r="12">
@@ -662,17 +662,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L-PFOS</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D12">
-        <v>1.531549438019291</v>
+        <v>0.365</v>
       </c>
       <c r="E12">
-        <v>2.113684371759843</v>
+        <v>0.365</v>
       </c>
       <c r="F12">
-        <v>3.216751099960185</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="13">
@@ -688,17 +688,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Br-PFOS</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.365</v>
+        <v>0.015</v>
       </c>
       <c r="E13">
-        <v>0.365</v>
+        <v>0.04380595821951844</v>
       </c>
       <c r="F13">
-        <v>0.365</v>
+        <v>0.1421050859158605</v>
       </c>
     </row>
     <row r="14">
@@ -709,22 +709,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6:2 FTSA</t>
+          <t>sumPFAS</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.1664496932789</v>
+        <v>11.07954611693446</v>
       </c>
       <c r="E14">
-        <v>0.2800674174247669</v>
+        <v>15.03551176672183</v>
       </c>
       <c r="F14">
-        <v>0.4035310500594182</v>
+        <v>17.70102230973641</v>
       </c>
     </row>
     <row r="15">
@@ -735,22 +735,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8:2 FTSA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.015</v>
+        <v>0.397750386292623</v>
       </c>
       <c r="E15">
-        <v>0.04380595821951844</v>
+        <v>0.4835849144779886</v>
       </c>
       <c r="F15">
-        <v>0.1421050859158605</v>
+        <v>0.574379006153019</v>
       </c>
     </row>
     <row r="16">
@@ -766,17 +766,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sumPFAS</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D16">
-        <v>12.1618846533447</v>
+        <v>0.28</v>
       </c>
       <c r="E16">
-        <v>17.56428517233606</v>
+        <v>0.7649610205527994</v>
       </c>
       <c r="F16">
-        <v>22.59713252826216</v>
+        <v>0.8966322525315829</v>
       </c>
     </row>
     <row r="17">
@@ -792,17 +792,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.195</v>
+        <v>0.1715551345654109</v>
       </c>
       <c r="E17">
-        <v>0.195</v>
+        <v>0.2591769352772525</v>
       </c>
       <c r="F17">
-        <v>0.195</v>
+        <v>0.3321385381824808</v>
       </c>
     </row>
     <row r="18">
@@ -818,17 +818,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.397750386292623</v>
+        <v>0.6613713196247539</v>
       </c>
       <c r="E18">
-        <v>0.4835849144779886</v>
+        <v>0.8738955823293172</v>
       </c>
       <c r="F18">
-        <v>0.574379006153019</v>
+        <v>1.012139549422043</v>
       </c>
     </row>
     <row r="19">
@@ -844,17 +844,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.28</v>
+        <v>0.2481361804282529</v>
       </c>
       <c r="E19">
-        <v>0.7649610205527994</v>
+        <v>0.2516546696760813</v>
       </c>
       <c r="F19">
-        <v>0.8966322525315829</v>
+        <v>0.369450277988884</v>
       </c>
     </row>
     <row r="20">
@@ -870,17 +870,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.1715551345654109</v>
+        <v>0.025</v>
       </c>
       <c r="E20">
-        <v>0.2591769352772525</v>
+        <v>0.5926346380891835</v>
       </c>
       <c r="F20">
-        <v>0.3321385381824808</v>
+        <v>0.749578755244962</v>
       </c>
     </row>
     <row r="21">
@@ -896,17 +896,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D21">
-        <v>0.6613713196247539</v>
+        <v>3.692610729584259</v>
       </c>
       <c r="E21">
-        <v>0.8738955823293172</v>
+        <v>4.429164151356665</v>
       </c>
       <c r="F21">
-        <v>1.012139549422043</v>
+        <v>6.718752327351124</v>
       </c>
     </row>
     <row r="22">
@@ -922,17 +922,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PFTrDA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D22">
-        <v>0.2481361804282529</v>
+        <v>0.3981071917504266</v>
       </c>
       <c r="E22">
-        <v>0.2516546696760813</v>
+        <v>0.6172690945418219</v>
       </c>
       <c r="F22">
-        <v>0.369450277988884</v>
+        <v>1.332459213238075</v>
       </c>
     </row>
     <row r="23">
@@ -948,17 +948,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PFTeDA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.025</v>
+        <v>3.647790385583442</v>
       </c>
       <c r="E23">
-        <v>0.5926346380891835</v>
+        <v>4.584471535092909</v>
       </c>
       <c r="F23">
-        <v>0.749578755244962</v>
+        <v>6.281613352812112</v>
       </c>
     </row>
     <row r="24">
@@ -974,17 +974,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FOSA</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D24">
-        <v>3.692610729584259</v>
+        <v>0.4540767086740754</v>
       </c>
       <c r="E24">
-        <v>4.429164151356665</v>
+        <v>0.7653095040833233</v>
       </c>
       <c r="F24">
-        <v>6.718752327351124</v>
+        <v>0.9848889219929129</v>
       </c>
     </row>
     <row r="25">
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EtFOSAA</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.3981071917504266</v>
+        <v>0.0232533435909575</v>
       </c>
       <c r="E25">
-        <v>0.6172690945418219</v>
+        <v>0.04385119017408517</v>
       </c>
       <c r="F25">
-        <v>1.332459213238075</v>
+        <v>0.08430584041668429</v>
       </c>
     </row>
     <row r="26">
@@ -1021,22 +1021,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L-PFOS</t>
+          <t>sumPFAS</t>
         </is>
       </c>
       <c r="D26">
-        <v>3.647790385583442</v>
+        <v>14.11360378205541</v>
       </c>
       <c r="E26">
-        <v>4.584471535092909</v>
+        <v>21.16570361356836</v>
       </c>
       <c r="F26">
-        <v>6.281613352812112</v>
+        <v>25.7597628633788</v>
       </c>
     </row>
     <row r="27">
@@ -1047,22 +1047,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Br-PFOS</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D27">
-        <v>0.4540767086740754</v>
+        <v>0.5592113393561835</v>
       </c>
       <c r="E27">
-        <v>0.7653095040833233</v>
+        <v>0.8431094249329545</v>
       </c>
       <c r="F27">
-        <v>0.9848889219929129</v>
+        <v>1.652777889828522</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:2 FTSA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D28">
-        <v>1.073365009866975</v>
+        <v>0.9394264230347177</v>
       </c>
       <c r="E28">
-        <v>1.25633659848754</v>
+        <v>1.750923968951651</v>
       </c>
       <c r="F28">
-        <v>2.292659902543517</v>
+        <v>2.227304260842699</v>
       </c>
     </row>
     <row r="29">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8:2 FTSA</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D29">
-        <v>0.0232533435909575</v>
+        <v>0.1618187009819114</v>
       </c>
       <c r="E29">
-        <v>0.04385119017408517</v>
+        <v>0.2313618538079542</v>
       </c>
       <c r="F29">
-        <v>0.08430584041668429</v>
+        <v>0.4472453042467587</v>
       </c>
     </row>
     <row r="30">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sumPFAS</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D30">
-        <v>19.41171259933393</v>
+        <v>0.4233634942076583</v>
       </c>
       <c r="E30">
-        <v>25.4272962621312</v>
+        <v>0.5421112919236017</v>
       </c>
       <c r="F30">
-        <v>38.42991343240408</v>
+        <v>0.8057165568930275</v>
       </c>
     </row>
     <row r="31">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.195</v>
+        <v>0.015</v>
       </c>
       <c r="E31">
-        <v>0.195</v>
+        <v>0.1025714702735838</v>
       </c>
       <c r="F31">
-        <v>1.987167783551845</v>
+        <v>0.1757625516188147</v>
       </c>
     </row>
     <row r="32">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.5592113393561835</v>
+        <v>0.025</v>
       </c>
       <c r="E32">
-        <v>0.8431094249329545</v>
+        <v>0.3368020365696229</v>
       </c>
       <c r="F32">
-        <v>1.652777889828522</v>
+        <v>0.9601137252317258</v>
       </c>
     </row>
     <row r="33">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D33">
-        <v>0.9394264230347177</v>
+        <v>0.4055256851692838</v>
       </c>
       <c r="E33">
-        <v>1.750923968951651</v>
+        <v>0.5352944142542096</v>
       </c>
       <c r="F33">
-        <v>2.227304260842699</v>
+        <v>1.075832924116965</v>
       </c>
     </row>
     <row r="34">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D34">
-        <v>0.1618187009819114</v>
+        <v>0.05</v>
       </c>
       <c r="E34">
-        <v>0.2313618538079542</v>
+        <v>0.1521371538257352</v>
       </c>
       <c r="F34">
-        <v>0.4472453042467587</v>
+        <v>0.3044746717892016</v>
       </c>
     </row>
     <row r="35">
@@ -1260,17 +1260,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D35">
-        <v>0.4233634942076583</v>
+        <v>7.694628330539329</v>
       </c>
       <c r="E35">
-        <v>0.5421112919236017</v>
+        <v>12.37067365221673</v>
       </c>
       <c r="F35">
-        <v>0.8057165568930275</v>
+        <v>18.27350856661636</v>
       </c>
     </row>
     <row r="36">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PFTrDA</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D36">
-        <v>0.015</v>
+        <v>0.365</v>
       </c>
       <c r="E36">
-        <v>0.1025714702735838</v>
+        <v>0.365</v>
       </c>
       <c r="F36">
-        <v>0.1757625516188147</v>
+        <v>1.093835496047211</v>
       </c>
     </row>
     <row r="37">
@@ -1312,173 +1312,173 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PFTeDA</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D37">
-        <v>0.025</v>
+        <v>0.102365004599733</v>
       </c>
       <c r="E37">
-        <v>0.3368020365696229</v>
+        <v>0.2040708605299908</v>
       </c>
       <c r="F37">
-        <v>0.9601137252317258</v>
+        <v>0.3980433156364055</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FOSA</t>
+          <t>sumPFAS</t>
         </is>
       </c>
       <c r="D38">
-        <v>0.4055256851692838</v>
+        <v>14.32840609082056</v>
       </c>
       <c r="E38">
-        <v>0.5352944142542096</v>
+        <v>17.1871208667622</v>
       </c>
       <c r="F38">
-        <v>1.075832924116965</v>
+        <v>25.79997209101526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EtFOSAA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D39">
-        <v>0.05</v>
+        <v>0.8898463410519114</v>
       </c>
       <c r="E39">
-        <v>0.1521371538257352</v>
+        <v>1.143698986771742</v>
       </c>
       <c r="F39">
-        <v>0.3044746717892016</v>
+        <v>1.804258115007089</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L-PFOS</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D40">
-        <v>7.694628330539329</v>
+        <v>1.095489969778928</v>
       </c>
       <c r="E40">
-        <v>12.37067365221673</v>
+        <v>1.566299023280164</v>
       </c>
       <c r="F40">
-        <v>18.27350856661636</v>
+        <v>2.153380399137108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Br-PFOS</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D41">
-        <v>0.365</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E41">
-        <v>0.365</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F41">
-        <v>1.093835496047211</v>
+        <v>0.229548404629452</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6:2 FTSA</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D42">
-        <v>1.79307088666316</v>
+        <v>0.658646204113795</v>
       </c>
       <c r="E42">
-        <v>3.598147488558213</v>
+        <v>1.014374433705829</v>
       </c>
       <c r="F42">
-        <v>6.183585310327512</v>
+        <v>1.235796504982175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8:2 FTSA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D43">
-        <v>0.102365004599733</v>
+        <v>0.2362218626564422</v>
       </c>
       <c r="E43">
-        <v>0.2040708605299908</v>
+        <v>0.410081539924624</v>
       </c>
       <c r="F43">
-        <v>0.3980433156364055</v>
+        <v>0.4492913020607122</v>
       </c>
     </row>
     <row r="44">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sumPFAS</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D44">
-        <v>15.26880108701387</v>
+        <v>0.025</v>
       </c>
       <c r="E44">
-        <v>17.83030681908391</v>
+        <v>0.025</v>
       </c>
       <c r="F44">
-        <v>26.00997209101526</v>
+        <v>0.6262067972478329</v>
       </c>
     </row>
     <row r="45">
@@ -1520,17 +1520,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D45">
-        <v>0.195</v>
+        <v>0.2402057368930659</v>
       </c>
       <c r="E45">
-        <v>0.5816781647565</v>
+        <v>0.4993698445517332</v>
       </c>
       <c r="F45">
-        <v>0.7861272146518373</v>
+        <v>0.9226735925989369</v>
       </c>
     </row>
     <row r="46">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D46">
-        <v>0.8898463410519114</v>
+        <v>0.1227244389027431</v>
       </c>
       <c r="E46">
-        <v>1.143698986771742</v>
+        <v>0.2247792358570222</v>
       </c>
       <c r="F46">
-        <v>1.804258115007089</v>
+        <v>0.3730134374411505</v>
       </c>
     </row>
     <row r="47">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D47">
-        <v>1.095489969778928</v>
+        <v>8.910501784264373</v>
       </c>
       <c r="E47">
-        <v>1.566299023280164</v>
+        <v>10.58905875246504</v>
       </c>
       <c r="F47">
-        <v>2.153380399137108</v>
+        <v>13.75331672318385</v>
       </c>
     </row>
     <row r="48">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D48">
-        <v>0.08500000000000001</v>
+        <v>0.9445851544030015</v>
       </c>
       <c r="E48">
-        <v>0.08500000000000001</v>
+        <v>1.412190592410326</v>
       </c>
       <c r="F48">
-        <v>0.229548404629452</v>
+        <v>2.793524001872411</v>
       </c>
     </row>
     <row r="49">
@@ -1624,224 +1624,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.658646204113795</v>
+        <v>0.015</v>
       </c>
       <c r="E49">
-        <v>1.014374433705829</v>
+        <v>0.015</v>
       </c>
       <c r="F49">
-        <v>1.235796504982175</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>PFTrDA</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>0.2362218626564422</v>
-      </c>
-      <c r="E50">
-        <v>0.410081539924624</v>
-      </c>
-      <c r="F50">
-        <v>0.4492913020607122</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>PFTeDA</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>0.025</v>
-      </c>
-      <c r="E51">
-        <v>0.025</v>
-      </c>
-      <c r="F51">
-        <v>0.6262067972478329</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>FOSA</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>0.2402057368930659</v>
-      </c>
-      <c r="E52">
-        <v>0.4993698445517332</v>
-      </c>
-      <c r="F52">
-        <v>0.9226735925989369</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>EtFOSAA</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>0.1227244389027431</v>
-      </c>
-      <c r="E53">
-        <v>0.2247792358570222</v>
-      </c>
-      <c r="F53">
-        <v>0.3730134374411505</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>L-PFOS</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>8.910501784264373</v>
-      </c>
-      <c r="E54">
-        <v>10.58905875246504</v>
-      </c>
-      <c r="F54">
-        <v>13.75331672318385</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Br-PFOS</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>0.9445851544030015</v>
-      </c>
-      <c r="E55">
-        <v>1.412190592410326</v>
-      </c>
-      <c r="F55">
-        <v>2.793524001872411</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>6:2 FTSA</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>0.015</v>
-      </c>
-      <c r="E56">
-        <v>0.015</v>
-      </c>
-      <c r="F56">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>8:2 FTSA</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>0.015</v>
-      </c>
-      <c r="E57">
-        <v>0.015</v>
-      </c>
-      <c r="F57">
         <v>0.1324544434343871</v>
       </c>
     </row>
